--- a/Datos/Anuario2024/020401_ProyeccionesPoblacion.xlsx
+++ b/Datos/Anuario2024/020401_ProyeccionesPoblacion.xlsx
@@ -1,300 +1,414 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8715" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8715"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="26" r:id="rId2"/>
+    <sheet name="2" sheetId="27" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="1">'1'!$A$1:$D$19</definedName>
+    <definedName name="_R1_4" localSheetId="2">'2'!$A$1:$D$25</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
+    <definedName name="_R3_13" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_13">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
+    <definedName name="_R3_15" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_15">#REF!</definedName>
+    <definedName name="_R3_16" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_16">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
+    <definedName name="_R3_18" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_18">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
+    <definedName name="_R3_22" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_22">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
+    <definedName name="_R5_11" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_11">#REF!</definedName>
+    <definedName name="_R5_12" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_12">#REF!</definedName>
+    <definedName name="_R5_13" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_13">#REF!</definedName>
+    <definedName name="_R5_14" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_14">#REF!</definedName>
+    <definedName name="_R5_15" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_15">#REF!</definedName>
+    <definedName name="_R5_16" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_16">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
+    <definedName name="_R5_19" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_19">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_20" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_20">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
+    <definedName name="_R5_23" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_23">#REF!</definedName>
+    <definedName name="_R5_24" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_24">#REF!</definedName>
+    <definedName name="_R5_25" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_25">#REF!</definedName>
+    <definedName name="_R5_26" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_26">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
+    <definedName name="_R6_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_3">#REF!</definedName>
+    <definedName name="_R6_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_4">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_6">#REF!</definedName>
+    <definedName name="_R6_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_7">#REF!</definedName>
+    <definedName name="_R6_8" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_8">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
+    <definedName name="_R8_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_2">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="1">'1'!$A$1:$D$19</definedName>
-    <definedName name="_R2_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">'2'!$A$1:$D$25</definedName>
-    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_16" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_18" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_22" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_16" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_23" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_24" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_25" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_26" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId253" roundtripDataSignature="AMtx7mizkmFRPNryej4reDhSC2xgXklycg=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Menores de 20 anys</t>
+  </si>
+  <si>
+    <t>De 20 a 64 años</t>
+  </si>
+  <si>
+    <t>De 65 y más años</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>PROYECCIONES DE POBLACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;=95</t>
+  </si>
+  <si>
+    <t>1. Proyecciones de población según edad (grandes grupos) y sexo. 2027 - 2037</t>
+  </si>
+  <si>
+    <t>Fuente: Proyecciones de Población 2022-2037. Instituto Valenciano de Estadística.</t>
+  </si>
+  <si>
+    <t>2. Proyecciones de población según edad (grupos quinquenales) y sexo. 2027 - 2037</t>
+  </si>
+  <si>
+    <t>Provincia de València</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -312,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -366,166 +480,89 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -684,8 +721,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1592,2158 +1629,2029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>PROYECCIONES DE POBLACIÓN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="21.42578125" customWidth="1" min="1" max="1"/>
-    <col width="8.5703125" customWidth="1" min="2" max="10"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Proyecciones de población según edad (grandes grupos) y sexo. 2027 - 2037</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="n"/>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="11" t="n"/>
-      <c r="G1" s="11" t="n"/>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="n"/>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="n"/>
-      <c r="X2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="30" t="n">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="25">
         <v>2027</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28">
         <v>2032</v>
       </c>
-      <c r="G3" s="32" t="n"/>
-      <c r="H3" s="30" t="n">
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="25">
         <v>2037</v>
       </c>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
-      <c r="T3" s="1" t="n"/>
-      <c r="U3" s="1" t="n"/>
-      <c r="V3" s="1" t="n"/>
-      <c r="W3" s="1" t="n"/>
-      <c r="X3" s="1" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F4" s="22" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="G4" s="23" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="I4" s="13" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
-      <c r="T4" s="1" t="n"/>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="1" t="n"/>
-      <c r="W4" s="1" t="n"/>
-      <c r="X4" s="1" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
-      <c r="T5" s="1" t="n"/>
-      <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
         <v>803803</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>378500</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>425303</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>817512</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>383693</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>433819</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="8">
         <v>819592</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>384315</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>435276</v>
       </c>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
-      <c r="T6" s="1" t="n"/>
-      <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
-      <c r="W6" s="1" t="n"/>
-      <c r="X6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t>Menores de 20 anys</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
         <v>139572</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>72016</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>67556</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>134246</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>69325</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="6">
         <v>64921</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>130993</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>67664</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="6">
         <v>63329</v>
       </c>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
-      <c r="T7" s="1" t="n"/>
-      <c r="U7" s="1" t="n"/>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
-      <c r="X7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t>De 20 a 64 años</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
         <v>485516</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>233209</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>252307</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>490097</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>234265</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="8">
         <v>255831</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="8">
         <v>481871</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>230033</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>251838</v>
       </c>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
-      <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
-      <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="1" t="n"/>
-      <c r="X8" s="1" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t>De 65 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
         <v>178716</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>73275</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>105440</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>193169</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>80102</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>113067</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>206728</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>86619</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>120109</v>
       </c>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t>Provincia de València</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="P10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
-      <c r="T10" s="1" t="n"/>
-      <c r="U10" s="1" t="n"/>
-      <c r="V10" s="1" t="n"/>
-      <c r="W10" s="1" t="n"/>
-      <c r="X10" s="1" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
         <v>2705966</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>1317053</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>1388913</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>2799041</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>1358156</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>1440885</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>2857427</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>1384030</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="6">
         <v>1473397</v>
       </c>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
-      <c r="P11" s="1" t="n"/>
-      <c r="Q11" s="1" t="n"/>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="1" t="n"/>
-      <c r="T11" s="1" t="n"/>
-      <c r="U11" s="1" t="n"/>
-      <c r="V11" s="1" t="n"/>
-      <c r="W11" s="1" t="n"/>
-      <c r="X11" s="1" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t>Menores de 20 anys</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
         <v>497174</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>257444</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>239731</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>476029</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>246528</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>229501</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="8">
         <v>467648</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>242178</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>225469</v>
       </c>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
-      <c r="P12" s="1" t="n"/>
-      <c r="Q12" s="1" t="n"/>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
-      <c r="T12" s="1" t="n"/>
-      <c r="U12" s="1" t="n"/>
-      <c r="V12" s="1" t="n"/>
-      <c r="W12" s="1" t="n"/>
-      <c r="X12" s="1" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t>De 20 a 64 años</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
         <v>1634331</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>810596</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>823735</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>1676231</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>828204</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>848026</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>1666959</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>821998</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="6">
         <v>844961</v>
       </c>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="1" t="n"/>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="1" t="n"/>
-      <c r="T13" s="1" t="n"/>
-      <c r="U13" s="1" t="n"/>
-      <c r="V13" s="1" t="n"/>
-      <c r="W13" s="1" t="n"/>
-      <c r="X13" s="1" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>De 65 y más años</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
         <v>574461</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>249013</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>325448</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>646781</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>283423</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>363358</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="8">
         <v>722820</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>319853</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="8">
         <v>402966</v>
       </c>
-      <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
-      <c r="P14" s="1" t="n"/>
-      <c r="Q14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
-      <c r="T14" s="1" t="n"/>
-      <c r="U14" s="1" t="n"/>
-      <c r="V14" s="1" t="n"/>
-      <c r="W14" s="1" t="n"/>
-      <c r="X14" s="1" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
-      <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="1" t="n"/>
-      <c r="T15" s="1" t="n"/>
-      <c r="U15" s="1" t="n"/>
-      <c r="V15" s="1" t="n"/>
-      <c r="W15" s="1" t="n"/>
-      <c r="X15" s="1" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="n">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8">
         <v>5355061</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>2626957</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>2728104</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>5587329</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>2734920</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="8">
         <v>2852408</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="8">
         <v>5737749</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>2804594</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="8">
         <v>2933155</v>
       </c>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
-      <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="1" t="n"/>
-      <c r="T16" s="1" t="n"/>
-      <c r="U16" s="1" t="n"/>
-      <c r="V16" s="1" t="n"/>
-      <c r="W16" s="1" t="n"/>
-      <c r="X16" s="1" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t>Menores de 20 anys</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6">
         <v>981796</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>507911</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>473885</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>953556</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>493021</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="6">
         <v>460535</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="6">
         <v>943427</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>487721</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="6">
         <v>455706</v>
       </c>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
-      <c r="P17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-      <c r="R17" s="1" t="n"/>
-      <c r="S17" s="1" t="n"/>
-      <c r="T17" s="1" t="n"/>
-      <c r="U17" s="1" t="n"/>
-      <c r="V17" s="1" t="n"/>
-      <c r="W17" s="1" t="n"/>
-      <c r="X17" s="1" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>De 20 a 64 años</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
         <v>3216096</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>1604580</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>1611515</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>3313538</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>1649152</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="8">
         <v>1664386</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="8">
         <v>3304764</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="8">
         <v>1643448</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="8">
         <v>1661316</v>
       </c>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
-      <c r="P18" s="1" t="n"/>
-      <c r="Q18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
-      <c r="S18" s="1" t="n"/>
-      <c r="T18" s="1" t="n"/>
-      <c r="U18" s="1" t="n"/>
-      <c r="V18" s="1" t="n"/>
-      <c r="W18" s="1" t="n"/>
-      <c r="X18" s="1" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>De 65 y más años</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
         <v>1157168</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>514465</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>642703</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>1320234</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>592747</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="6">
         <v>727487</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="6">
         <v>1489558</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>673425</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="6">
         <v>816133</v>
       </c>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
-      <c r="P19" s="1" t="n"/>
-      <c r="Q19" s="1" t="n"/>
-      <c r="R19" s="1" t="n"/>
-      <c r="S19" s="1" t="n"/>
-      <c r="T19" s="1" t="n"/>
-      <c r="U19" s="1" t="n"/>
-      <c r="V19" s="1" t="n"/>
-      <c r="W19" s="1" t="n"/>
-      <c r="X19" s="1" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Proyecciones de Población 2022-2037. Instituto Valenciano de Estadística.</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
-      <c r="H20" s="9" t="n"/>
-      <c r="I20" s="9" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="16" t="n"/>
-      <c r="L20" s="16" t="n"/>
-      <c r="M20" s="16" t="n"/>
-      <c r="N20" s="16" t="n"/>
-      <c r="O20" s="16" t="n"/>
-      <c r="P20" s="16" t="n"/>
-      <c r="Q20" s="16" t="n"/>
-      <c r="R20" s="16" t="n"/>
-      <c r="S20" s="16" t="n"/>
-      <c r="T20" s="16" t="n"/>
-      <c r="U20" s="16" t="n"/>
-      <c r="V20" s="16" t="n"/>
-      <c r="W20" s="16" t="n"/>
-      <c r="X20" s="16" t="n"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="98"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="1" max="1"/>
-    <col width="8.5703125" customWidth="1" min="2" max="10"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>2. Proyecciones de población según edad (grupos quinquenales) y sexo. 2027 - 2037</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="n"/>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="11" t="n"/>
-      <c r="G1" s="11" t="n"/>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="17" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="n"/>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="n"/>
-      <c r="X2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="30" t="n">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="25">
         <v>2027</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28">
         <v>2032</v>
       </c>
-      <c r="G3" s="32" t="n"/>
-      <c r="H3" s="30" t="n">
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="25">
         <v>2037</v>
       </c>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
-      <c r="T3" s="1" t="n"/>
-      <c r="U3" s="1" t="n"/>
-      <c r="V3" s="1" t="n"/>
-      <c r="W3" s="1" t="n"/>
-      <c r="X3" s="1" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F4" s="22" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="G4" s="23" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="I4" s="13" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
-      <c r="T4" s="1" t="n"/>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="1" t="n"/>
-      <c r="W4" s="1" t="n"/>
-      <c r="X4" s="1" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
         <v>803803</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="15">
         <v>378500</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="15">
         <v>425303</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>817512</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="15">
         <v>383693</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="15">
         <v>433819</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="15">
         <v>819592</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="15">
         <v>384315</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="15">
         <v>435276</v>
       </c>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
-      <c r="T5" s="1" t="n"/>
-      <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0-4</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="24">
         <v>29690</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="24">
         <v>15322</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="24">
         <v>14368</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="24">
         <v>31883</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="24">
         <v>16442</v>
       </c>
-      <c r="G6" s="24" t="n">
+      <c r="G6" s="24">
         <v>15440</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="24">
         <v>33630</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="24">
         <v>17335</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="24">
         <v>16295</v>
       </c>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
-      <c r="T6" s="1" t="n"/>
-      <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
-      <c r="W6" s="1" t="n"/>
-      <c r="X6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5-9</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
         <v>31135</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>16095</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>15040</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>30771</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>15892</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>14879</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="5">
         <v>31931</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>16466</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>15464</v>
       </c>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
-      <c r="T7" s="1" t="n"/>
-      <c r="U7" s="1" t="n"/>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
-      <c r="X7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10-14</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24">
         <v>36364</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="24">
         <v>18773</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="24">
         <v>17591</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="24">
         <v>32089</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="24">
         <v>16646</v>
       </c>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="24">
         <v>15443</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="24">
         <v>31099</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="24">
         <v>16108</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="24">
         <v>14992</v>
       </c>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
-      <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
-      <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="1" t="n"/>
-      <c r="X8" s="1" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15-19</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
         <v>42383</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>21826</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>20557</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>39503</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>20344</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>19159</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="5">
         <v>34333</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>17755</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>16578</v>
       </c>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20-24</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
         <v>49066</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="24">
         <v>24535</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="24">
         <v>24530</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="24">
         <v>50213</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="24">
         <v>25327</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="24">
         <v>24885</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="24">
         <v>45217</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="24">
         <v>22873</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="24">
         <v>22344</v>
       </c>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="P10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
-      <c r="T10" s="1" t="n"/>
-      <c r="U10" s="1" t="n"/>
-      <c r="V10" s="1" t="n"/>
-      <c r="W10" s="1" t="n"/>
-      <c r="X10" s="1" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25-29</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
         <v>51800</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>25559</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>26241</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>57579</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>28308</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="5">
         <v>29272</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="5">
         <v>56800</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5">
         <v>28224</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>28575</v>
       </c>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
-      <c r="P11" s="1" t="n"/>
-      <c r="Q11" s="1" t="n"/>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="1" t="n"/>
-      <c r="T11" s="1" t="n"/>
-      <c r="U11" s="1" t="n"/>
-      <c r="V11" s="1" t="n"/>
-      <c r="W11" s="1" t="n"/>
-      <c r="X11" s="1" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30-34</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
         <v>50886</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="24">
         <v>24788</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="24">
         <v>26098</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="24">
         <v>55631</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="24">
         <v>27111</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="24">
         <v>28519</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="24">
         <v>60036</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="24">
         <v>29398</v>
       </c>
-      <c r="J12" s="24" t="n">
+      <c r="J12" s="24">
         <v>30638</v>
       </c>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
-      <c r="P12" s="1" t="n"/>
-      <c r="Q12" s="1" t="n"/>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
-      <c r="T12" s="1" t="n"/>
-      <c r="U12" s="1" t="n"/>
-      <c r="V12" s="1" t="n"/>
-      <c r="W12" s="1" t="n"/>
-      <c r="X12" s="1" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 35-39</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
         <v>48668</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>23553</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>25115</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="5">
         <v>51904</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>24852</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="5">
         <v>27052</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="5">
         <v>55143</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="5">
         <v>26569</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>28573</v>
       </c>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="1" t="n"/>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="1" t="n"/>
-      <c r="T13" s="1" t="n"/>
-      <c r="U13" s="1" t="n"/>
-      <c r="V13" s="1" t="n"/>
-      <c r="W13" s="1" t="n"/>
-      <c r="X13" s="1" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40-44</t>
-        </is>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24">
         <v>50271</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="24">
         <v>23896</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="24">
         <v>26376</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="24">
         <v>49142</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="24">
         <v>23304</v>
       </c>
-      <c r="G14" s="24" t="n">
+      <c r="G14" s="24">
         <v>25838</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="24">
         <v>50911</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="24">
         <v>24014</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="24">
         <v>26897</v>
       </c>
-      <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
-      <c r="P14" s="1" t="n"/>
-      <c r="Q14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
-      <c r="T14" s="1" t="n"/>
-      <c r="U14" s="1" t="n"/>
-      <c r="V14" s="1" t="n"/>
-      <c r="W14" s="1" t="n"/>
-      <c r="X14" s="1" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 45-49</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
         <v>58278</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>27800</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>30477</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="5">
         <v>50282</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="5">
         <v>23520</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="5">
         <v>26762</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="5">
         <v>48392</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="5">
         <v>22635</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>25757</v>
       </c>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
-      <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="1" t="n"/>
-      <c r="T15" s="1" t="n"/>
-      <c r="U15" s="1" t="n"/>
-      <c r="V15" s="1" t="n"/>
-      <c r="W15" s="1" t="n"/>
-      <c r="X15" s="1" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 50-54</t>
-        </is>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24">
         <v>61749</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="24">
         <v>29480</v>
       </c>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="24">
         <v>32269</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="24">
         <v>57822</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="24">
         <v>27066</v>
       </c>
-      <c r="G16" s="24" t="n">
+      <c r="G16" s="24">
         <v>30755</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="24">
         <v>49701</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="24">
         <v>22906</v>
       </c>
-      <c r="J16" s="24" t="n">
+      <c r="J16" s="24">
         <v>26794</v>
       </c>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
-      <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="1" t="n"/>
-      <c r="T16" s="1" t="n"/>
-      <c r="U16" s="1" t="n"/>
-      <c r="V16" s="1" t="n"/>
-      <c r="W16" s="1" t="n"/>
-      <c r="X16" s="1" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 55-59</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
         <v>58949</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>27814</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>31134</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>60605</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="5">
         <v>28388</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="5">
         <v>32216</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="5">
         <v>56888</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5">
         <v>26232</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>30656</v>
       </c>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
-      <c r="P17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-      <c r="R17" s="1" t="n"/>
-      <c r="S17" s="1" t="n"/>
-      <c r="T17" s="1" t="n"/>
-      <c r="U17" s="1" t="n"/>
-      <c r="V17" s="1" t="n"/>
-      <c r="W17" s="1" t="n"/>
-      <c r="X17" s="1" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 60-64</t>
-        </is>
-      </c>
-      <c r="B18" s="24" t="n">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24">
         <v>55849</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="24">
         <v>25783</v>
       </c>
-      <c r="D18" s="24" t="n">
+      <c r="D18" s="24">
         <v>30066</v>
       </c>
-      <c r="E18" s="24" t="n">
+      <c r="E18" s="24">
         <v>56920</v>
       </c>
-      <c r="F18" s="24" t="n">
+      <c r="F18" s="24">
         <v>26388</v>
       </c>
-      <c r="G18" s="24" t="n">
+      <c r="G18" s="24">
         <v>30532</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="H18" s="24">
         <v>58784</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="24">
         <v>27180</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J18" s="24">
         <v>31604</v>
       </c>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
-      <c r="P18" s="1" t="n"/>
-      <c r="Q18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
-      <c r="S18" s="1" t="n"/>
-      <c r="T18" s="1" t="n"/>
-      <c r="U18" s="1" t="n"/>
-      <c r="V18" s="1" t="n"/>
-      <c r="W18" s="1" t="n"/>
-      <c r="X18" s="1" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 65-69</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
         <v>49278</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>21928</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>27351</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="5">
         <v>53141</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5">
         <v>23979</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="5">
         <v>29162</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="5">
         <v>54398</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="5">
         <v>24736</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>29662</v>
       </c>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
-      <c r="P19" s="1" t="n"/>
-      <c r="Q19" s="1" t="n"/>
-      <c r="R19" s="1" t="n"/>
-      <c r="S19" s="1" t="n"/>
-      <c r="T19" s="1" t="n"/>
-      <c r="U19" s="1" t="n"/>
-      <c r="V19" s="1" t="n"/>
-      <c r="W19" s="1" t="n"/>
-      <c r="X19" s="1" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 70-74</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="n">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="24">
         <v>40922</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="24">
         <v>17532</v>
       </c>
-      <c r="D20" s="24" t="n">
+      <c r="D20" s="24">
         <v>23390</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="24">
         <v>45999</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="24">
         <v>19942</v>
       </c>
-      <c r="G20" s="24" t="n">
+      <c r="G20" s="24">
         <v>26057</v>
       </c>
-      <c r="H20" s="24" t="n">
+      <c r="H20" s="24">
         <v>49613</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="24">
         <v>21869</v>
       </c>
-      <c r="J20" s="24" t="n">
+      <c r="J20" s="24">
         <v>27745</v>
       </c>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
-      <c r="P20" s="1" t="n"/>
-      <c r="Q20" s="1" t="n"/>
-      <c r="R20" s="1" t="n"/>
-      <c r="S20" s="1" t="n"/>
-      <c r="T20" s="1" t="n"/>
-      <c r="U20" s="1" t="n"/>
-      <c r="V20" s="1" t="n"/>
-      <c r="W20" s="1" t="n"/>
-      <c r="X20" s="1" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 75-79</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
         <v>35743</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>14867</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>20877</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="5">
         <v>36113</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="5">
         <v>14996</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="5">
         <v>21117</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="5">
         <v>40765</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5">
         <v>17182</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="5">
         <v>23583</v>
       </c>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
-      <c r="P21" s="1" t="n"/>
-      <c r="Q21" s="1" t="n"/>
-      <c r="R21" s="1" t="n"/>
-      <c r="S21" s="1" t="n"/>
-      <c r="T21" s="1" t="n"/>
-      <c r="U21" s="1" t="n"/>
-      <c r="V21" s="1" t="n"/>
-      <c r="W21" s="1" t="n"/>
-      <c r="X21" s="1" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 80-84</t>
-        </is>
-      </c>
-      <c r="B22" s="24" t="n">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="24">
         <v>26518</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="24">
         <v>10296</v>
       </c>
-      <c r="D22" s="24" t="n">
+      <c r="D22" s="24">
         <v>16222</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="24">
         <v>28548</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="24">
         <v>11293</v>
       </c>
-      <c r="G22" s="24" t="n">
+      <c r="G22" s="24">
         <v>17255</v>
       </c>
-      <c r="H22" s="24" t="n">
+      <c r="H22" s="24">
         <v>29135</v>
       </c>
-      <c r="I22" s="24" t="n">
+      <c r="I22" s="24">
         <v>11567</v>
       </c>
-      <c r="J22" s="24" t="n">
+      <c r="J22" s="24">
         <v>17568</v>
       </c>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="P22" s="1" t="n"/>
-      <c r="Q22" s="1" t="n"/>
-      <c r="R22" s="1" t="n"/>
-      <c r="S22" s="1" t="n"/>
-      <c r="T22" s="1" t="n"/>
-      <c r="U22" s="1" t="n"/>
-      <c r="V22" s="1" t="n"/>
-      <c r="W22" s="1" t="n"/>
-      <c r="X22" s="1" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 85-89</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5">
         <v>15980</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>5621</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>10358</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="5">
         <v>18033</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="5">
         <v>6471</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="5">
         <v>11563</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="5">
         <v>19658</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="5">
         <v>7217</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="5">
         <v>12441</v>
       </c>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
-      <c r="P23" s="1" t="n"/>
-      <c r="Q23" s="1" t="n"/>
-      <c r="R23" s="1" t="n"/>
-      <c r="S23" s="1" t="n"/>
-      <c r="T23" s="1" t="n"/>
-      <c r="U23" s="1" t="n"/>
-      <c r="V23" s="1" t="n"/>
-      <c r="W23" s="1" t="n"/>
-      <c r="X23" s="1" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 90-94</t>
-        </is>
-      </c>
-      <c r="B24" s="24" t="n">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="24">
         <v>7921</v>
       </c>
-      <c r="C24" s="24" t="n">
+      <c r="C24" s="24">
         <v>2458</v>
       </c>
-      <c r="D24" s="24" t="n">
+      <c r="D24" s="24">
         <v>5463</v>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="24">
         <v>8188</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="24">
         <v>2587</v>
       </c>
-      <c r="G24" s="24" t="n">
+      <c r="G24" s="24">
         <v>5600</v>
       </c>
-      <c r="H24" s="24" t="n">
+      <c r="H24" s="24">
         <v>9580</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="24">
         <v>3092</v>
       </c>
-      <c r="J24" s="24" t="n">
+      <c r="J24" s="24">
         <v>6488</v>
       </c>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
-      <c r="P24" s="1" t="n"/>
-      <c r="Q24" s="1" t="n"/>
-      <c r="R24" s="1" t="n"/>
-      <c r="S24" s="1" t="n"/>
-      <c r="T24" s="1" t="n"/>
-      <c r="U24" s="1" t="n"/>
-      <c r="V24" s="1" t="n"/>
-      <c r="W24" s="1" t="n"/>
-      <c r="X24" s="1" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &gt;=95</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5">
         <v>2353</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>573</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>1780</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>3148</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>834</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>2313</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="5">
         <v>3579</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="5">
         <v>956</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="5">
         <v>2623</v>
       </c>
-      <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
-      <c r="P25" s="1" t="n"/>
-      <c r="Q25" s="1" t="n"/>
-      <c r="R25" s="1" t="n"/>
-      <c r="S25" s="1" t="n"/>
-      <c r="T25" s="1" t="n"/>
-      <c r="U25" s="1" t="n"/>
-      <c r="V25" s="1" t="n"/>
-      <c r="W25" s="1" t="n"/>
-      <c r="X25" s="1" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Proyecciones de Población 2022-2037. Instituto Valenciano de Estadística.</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="9" t="n"/>
-      <c r="F26" s="9" t="n"/>
-      <c r="G26" s="9" t="n"/>
-      <c r="H26" s="9" t="n"/>
-      <c r="I26" s="9" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="16" t="n"/>
-      <c r="L26" s="16" t="n"/>
-      <c r="M26" s="16" t="n"/>
-      <c r="N26" s="16" t="n"/>
-      <c r="O26" s="16" t="n"/>
-      <c r="P26" s="16" t="n"/>
-      <c r="Q26" s="16" t="n"/>
-      <c r="R26" s="16" t="n"/>
-      <c r="S26" s="16" t="n"/>
-      <c r="T26" s="16" t="n"/>
-      <c r="U26" s="16" t="n"/>
-      <c r="V26" s="16" t="n"/>
-      <c r="W26" s="16" t="n"/>
-      <c r="X26" s="16" t="n"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="A8" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>